--- a/COV_light_test.xlsx
+++ b/COV_light_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NLP-IAA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skate\Desktop\IAA\NPL-spacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C84DF0-0CDE-44C3-8B25-B5496C8B1A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2562A-2D9F-485F-A286-D772BE6A0EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,48 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Me, ready to go at supermarket during the #COVID19 outbreak.
-Not because I'm paranoid, but because my food stock is litteraly empty. The #coronavirus is a serious thing, but please, don't panic. It causes shortage...
-#CoronavirusFrance #restezchezvous #StayAtHome #confinement https://t.co/usmuaLq72n</t>
+    <t xml:space="preserve">bad bad bad bad bad bad </t>
   </si>
   <si>
-    <t>For corona prevention,we should stop to buy things with the cash and should use online payment methods because corona can spread through the notes. Also we should prefer online shopping from our home. It's time to fight against COVID 19?. #govindia #IndiaFightsCorona</t>
-  </si>
-  <si>
-    <t>with 100  nations inficted with  covid  19  the world must  not  play fair with china  100 goverments must demand  china  adopts new guilde  lines on food safty  the  chinese  goverment  is guilty of  being  irosponcible   with life  on a global scale</t>
-  </si>
-  <si>
-    <t>@10DowningStreet @grantshapps what is being done to ensure food and other essential products are being re-stocked at supermarkets and panic buying actively discouraged? It cannot be left to checkout staff to police the actions of the selfish and profiteer</t>
-  </si>
-  <si>
-    <t>In preparation for higher demand and a potential food shortage, The Hunger Coalition purchased 10 percent more food and implemented new protocols due to the COVID-19 coronavirus. https://t.co/5CecYtLnYn</t>
-  </si>
-  <si>
-    <t>This morning I tested positive for Covid 19. I feel ok, I have no symptoms so far but have been isolated since I found out about my possible exposure to the virus.  Stay home people and be pragmatic. I will keep you updated on how Im doing ???? No panic. https://t.co/Lg7HVMZglZ</t>
-  </si>
-  <si>
-    <t>Do you see malicious price increases in NYC? The NYC Department of Consumer and Worker Protection (DCWP) has set up a page to digitally file a complaint. Click here: https://t.co/oEx6Y8mm2K
-To file a complaint (use the word"Overcharge") https://t.co/MdMmoBttOP
-#COVID19 #CovidNYC</t>
-  </si>
-  <si>
-    <t>@7SealsOfTheEnd Soon with dwindling supplies unlawful Panicky people will be breaking into Closed Stores &amp;amp; Supermarkets to Raid them as they normally do during a Crisis so massive as the #Coronavirus
-#StockUp&amp;amp;LockUp</t>
-  </si>
-  <si>
-    <t>There Is of in the Country  The more empty shelves people see the more buying ensues the more food is out of stock</t>
-  </si>
-  <si>
-    <t>We're sorry to say that our @FinFabUK event is being cancelled due to Covid-19. The health and wellbeing of our attendees, speakers and staff is our top priority. Apologies for any disappointment this may cause. All FAQs are answered in the link below:
-https://t.co/GDDPTudCvj</t>
-  </si>
-  <si>
-    <t>my wife works retail&amp;amp;a customer came in yesterday, coughing everywhere, saying they have CoVid-19. They requested a deep clean of the store - her company objected to due to cost, recommending the team spray disinfectant&amp;amp;clean themselves. we're gonna die/get sick due to capitalism</t>
-  </si>
-  <si>
-    <t>CHECK VIDEO ?? https://t.co/1ksn9Brl02 ??No food ? in USA market due to coronavirus panic we gonna die from starvation #CoronavirusOutbreak #coronavirus #houston #nofood #Notoiletpaper #NoHandShakes #nohandsanitizer #COVID19 #pandemic #totallockdown #COVID2019usa #walmart https://t.co/ztN3iMkgpD</t>
+    <t>good good good good good</t>
   </si>
 </sst>
 </file>
@@ -97,8 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,75 +405,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="255.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/COV_light_test.xlsx
+++ b/COV_light_test.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skate\Desktop\IAA\NPL-spacy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C2562A-2D9F-485F-A286-D772BE6A0EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet 1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">bad bad bad bad bad bad </t>
+    <t>good good good good good</t>
   </si>
   <si>
-    <t>good good good good good</t>
+    <t xml:space="preserve">bad bad bad bad bad bad </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +50,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -61,23 +69,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -88,10 +102,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -129,71 +143,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -217,50 +231,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -270,7 +287,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -279,7 +296,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -288,7 +305,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -296,10 +313,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -328,7 +345,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -341,13 +358,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -359,77 +375,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.5" customWidth="1"/>
+    <col min="1" max="1" style="4" width="255.57642857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B41158">
-    <sortCondition ref="B1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>